--- a/data/assignment.xlsx
+++ b/data/assignment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -25,65 +25,67 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Filepath</t>
+  </si>
+  <si>
     <t>Result</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>Normal Flow</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>https://school.moodledemo.net/mod/assign/view.php?id=787</t>
-  </si>
-  <si>
-    <t>Text</t>
+    <t>Approved</t>
   </si>
   <si>
     <t>TC-002-001-1</t>
   </si>
   <si>
+    <t>File smaller 1MB</t>
+  </si>
+  <si>
+    <t>https://school.moodledemo.net/mod/assign/view.php?id=788</t>
+  </si>
+  <si>
+    <t>data/assignment.xlsx</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
     <t>TC-002-001-2</t>
   </si>
   <si>
+    <t>data/quiz.xlsx</t>
+  </si>
+  <si>
     <t>TC-002-001-3</t>
   </si>
   <si>
-    <t>TC-002-001-4</t>
-  </si>
-  <si>
-    <t>TC-002-001-5</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been</t>
-  </si>
-  <si>
-    <t>Lorem</t>
-  </si>
-  <si>
-    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has</t>
-  </si>
-  <si>
-    <t>Ipsum is simply dummy text of the printing and typesetting industry.</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>File larger 1 MB</t>
+  </si>
+  <si>
+    <t>data/larger1Mb</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,13 +108,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,18 +415,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="3" max="3" width="52.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
@@ -438,121 +443,96 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" t="str">
-        <f>IF((E2=F2), "YES", "NO")</f>
-        <v>NO</v>
+        <f>IF((E2=F2), "Passed", "Failed")</f>
+        <v>Passed</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G3" t="str">
-        <f>IF((E3=F3), "YES", "NO")</f>
-        <v>NO</v>
+        <f>IF((E3=F3), "Passed", "Failed")</f>
+        <v>Passed</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4" t="str">
-        <f>IF((E4=F4), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="str">
-        <f>IF((E5=F5), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="str">
-        <f>IF((E6=F6), "YES", "NO")</f>
-        <v>NO</v>
+        <f>IF((E4=F4), "Passed", "Failed")</f>
+        <v>Passed</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/assignment.xlsx
+++ b/data/assignment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -418,7 +418,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,15 +468,12 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="str">
         <f>IF((E2=F2), "Passed", "Failed")</f>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -492,15 +489,12 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="str">
         <f>IF((E3=F3), "Passed", "Failed")</f>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -516,15 +510,12 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="str">
         <f>IF((E4=F4), "Passed", "Failed")</f>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
     </row>
   </sheetData>
